--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498730624304664" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16498730624514658" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16498730624524662" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16498730624674656" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_2-16498730626668606" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16498730627868235" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16498730629138575" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16498730631918545" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16498730634998262" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1649873063601826" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16498730636348598" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1649873064216862" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16498730644048557" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1649873064419825" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1649873064432859" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498730644338255" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498730644488268" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498730644508252" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-164987306446383" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16498730644668624" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16498730644788582" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16498730644948595" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16498730645108597" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16502911773017745" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502911773267658" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16502911773277676" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502911773437765" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_6-16502911775067704" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-16502911777737684" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_7-1650291177844772" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502911791717668" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16502911795717752" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16502911801957664" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16502911819667675" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16502911824367692" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16502911834116452" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1650291183444652" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16502911834706507" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502911834716532" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16502911835026646" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16502911835046518" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16502911835176597" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1650291183524656" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16502911835496495" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16502911835646522" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16502911835786524" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1245,11 +1245,11 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2153,11 +2153,11 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498622682547295.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862266211546.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497949938111415.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862266211546.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497937738825111.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498622682547295.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3256,15 +3256,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3277,15 +3277,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3361,15 +3361,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3445,15 +3445,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5304,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5332,20 +5332,20 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5363,14 +5363,14 @@
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5382,20 +5382,20 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5407,20 +5407,20 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5432,10 +5432,10 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
@@ -5457,13 +5457,13 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5504,16 +5504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -5582,13 +5582,13 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,13 +5604,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
         <v>0.25</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
         <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5657,13 +5657,13 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -5729,10 +5729,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
@@ -5754,7 +5754,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -5766,11 +5766,11 @@
         <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,23 +5779,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5829,13 +5829,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5882,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -5907,10 +5907,10 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
@@ -5979,7 +5979,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5988,14 +5988,14 @@
         <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6016,11 +6016,11 @@
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6111,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -6142,11 +6142,11 @@
         <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,16 +6155,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,16 +6205,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,23 +6255,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -6336,17 +6336,17 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,16 +6355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6458,20 +6458,20 @@
         <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,16 +6505,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -6533,13 +6533,13 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6555,13 +6555,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
         <v>0.25</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,16 +6630,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -6689,14 +6689,14 @@
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6705,10 +6705,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
@@ -6739,14 +6739,14 @@
         <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,13 +6755,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>-0.25</v>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,16 +6805,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7403,15 +7403,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7508,15 +7508,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7571,15 +7571,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16502911773017745" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502911773267658" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16502911773277676" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502911773437765" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_6-16502911775067704" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16502911777737684" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_7-1650291177844772" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502911791717668" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16502911795717752" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16502911801957664" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16502911819667675" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16502911824367692" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16502911834116452" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1650291183444652" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16502911834706507" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502911834716532" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16502911835026646" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16502911835046518" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16502911835176597" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-1650291183524656" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16502911835496495" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16502911835646522" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16502911835786524" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16504778195086646" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504778195296962" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16504778195316596" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504778195456955" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_7-16504778197316608" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_5-16504778197766976" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_4-16504778200026975" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16504778202096612" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1650477820257876" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16504778209119103" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16504778209969108" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16504778211318781" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16504778212268782" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16504778212438774" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504778212558823" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16504778212568784" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504778212719107" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16504778212728767" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16504778212879114" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16504778212958808" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16504778213199117" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16504778213358777" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504778213528774" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1685,11 +1685,11 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2265,11 +2265,11 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3277,15 +3277,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3487,15 +3487,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3592,15 +3592,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3634,15 +3634,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -5181,7 +5181,7 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5240,11 +5240,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -5313,14 +5313,14 @@
         <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -5341,11 +5341,11 @@
         <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5379,16 +5379,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -5429,16 +5429,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5463,14 +5463,14 @@
         <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5482,13 +5482,13 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -5513,14 +5513,14 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
@@ -5560,17 +5560,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5607,13 +5607,13 @@
         <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5638,7 +5638,7 @@
         <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5682,13 +5682,13 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -5704,23 +5704,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
         <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5804,23 +5804,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5832,20 +5832,20 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,10 +5854,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0.25</v>
@@ -5866,11 +5866,11 @@
         <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -5907,20 +5907,20 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5957,20 +5957,20 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
         <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5979,23 +5979,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6004,16 +6004,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
@@ -6130,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -6155,10 +6155,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6211,17 +6211,17 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6261,17 +6261,17 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -6292,11 +6292,11 @@
         <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6308,10 +6308,10 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
@@ -6330,7 +6330,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -6342,11 +6342,11 @@
         <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6367,11 +6367,11 @@
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6386,10 +6386,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6433,13 +6433,13 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,13 +6555,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
         <v>0.25</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -6630,10 +6630,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -6642,11 +6642,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6730,7 +6730,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -6758,20 +6758,20 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
         <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,23 +6805,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,13 +6830,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7487,15 +7487,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,19 +7567,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7697,15 +7697,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,11 +7735,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7935,14 +7935,14 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,14 +9124,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9207,11 +9207,11 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16504778195086646" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504778195296962" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16504778195316596" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504778195456955" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_7-16504778197316608" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_5-16504778197766976" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_4-16504778200026975" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16504778202096612" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1650477820257876" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16504778209119103" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16504778209969108" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16504778211318781" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16504778212268782" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16504778212438774" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504778212558823" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16504778212568784" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504778212719107" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16504778212728767" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16504778212879114" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16504778212958808" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16504778213199117" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16504778213358777" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504778213528774" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650996108570213" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-1650996108586251" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650996108586251" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16509961086022134" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_1-16509961087382088" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_9-16509961087622132" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_7-16509961090582466" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16509961094023752" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16509961095383804" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16509961096423776" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509961104984162" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16509961105383778" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16509961113144088" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16509961113303747" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16509961113463814" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16509961113463814" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16509961113624089" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16509961113624089" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509961113783798" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509961113783798" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509961113944252" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509961114104087" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16509961114264095" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2073,11 +2073,11 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2185,11 +2185,11 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3298,15 +3298,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -3902,10 +3902,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4355,7 +4355,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4753,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5304,23 +5304,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5338,7 +5338,7 @@
         <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -5357,13 +5357,13 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5382,20 +5382,20 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5404,10 +5404,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -5479,16 +5479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5507,13 +5507,13 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5532,13 +5532,13 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,23 +5604,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5632,10 +5632,10 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
         <v>0.25</v>
@@ -5654,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -5663,7 +5663,7 @@
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5710,10 +5710,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5732,13 +5732,13 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5782,20 +5782,20 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
@@ -5832,20 +5832,20 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -5904,16 +5904,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -5982,20 +5982,20 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6004,10 +6004,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>-0.25</v>
@@ -6016,11 +6016,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6108,20 +6108,20 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6155,10 +6155,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
         <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6211,10 +6211,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -6230,16 +6230,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -6280,16 +6280,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -6305,10 +6305,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
@@ -6317,11 +6317,11 @@
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6336,10 +6336,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -6358,7 +6358,7 @@
         <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>-0.25</v>
@@ -6386,17 +6386,17 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -6436,10 +6436,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
         <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6533,13 +6533,13 @@
         <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6558,20 +6558,20 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -6605,7 +6605,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -6630,16 +6630,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -6655,16 +6655,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,23 +6680,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6708,20 +6708,20 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
@@ -6755,16 +6755,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6805,23 +6805,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6833,20 +6833,20 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.25</v>
       </c>
-      <c r="E31" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,15 +7361,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7403,15 +7403,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7424,15 +7424,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7651,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7676,15 +7676,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,11 +7714,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8682,14 +8682,14 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8739,14 +8739,14 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8986,14 +8986,14 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -9156,7 +9156,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650996108570213" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-1650996108586251" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650996108586251" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16509961086022134" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_1-16509961087382088" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_9-16509961087622132" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_7-16509961090582466" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16509961094023752" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16509961095383804" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16509961096423776" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509961104984162" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16509961105383778" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16509961113144088" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16509961113303747" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16509961113463814" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16509961113463814" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16509961113624089" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16509961113624089" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509961113783798" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509961113783798" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509961113944252" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509961114104087" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16509961114264095" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16511687042684026" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16511687042794397" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16511687042804015" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16511687042954304" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_5-16511687043364024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_0-16511687044504454" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_0-16511687046404355" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16511687046713982" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1651168704757401" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511687048014007" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16511687052346437" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511687079928901" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16511687083531144" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16511687083791122" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16511687083911135" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16511687083921113" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16511687084231167" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16511687084241102" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511687084391499" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16511687084451208" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511687084721174" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16511687084861488" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16511687085181093" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,7 +507,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -957,11 +957,11 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1133,11 +1133,11 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1361,11 +1361,11 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1733,11 +1733,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,11 +3357,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,7 +3609,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -3755,7 +3755,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3777,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5106,7 +5106,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.25</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5379,16 +5379,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5404,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
         <v>-0.25</v>
@@ -5432,13 +5432,13 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -5463,7 +5463,7 @@
         <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5479,16 +5479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,16 +5504,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>-0.25</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -5613,14 +5613,14 @@
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5682,7 +5682,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
@@ -5691,11 +5691,11 @@
         <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
@@ -5757,7 +5757,7 @@
         <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>-0.25</v>
@@ -5766,11 +5766,11 @@
         <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,23 +5779,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,10 +5804,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
@@ -5816,11 +5816,11 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5879,10 +5879,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
@@ -5904,10 +5904,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
@@ -5916,11 +5916,11 @@
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,23 +5954,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5979,23 +5979,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6007,20 +6007,20 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6117,11 +6117,11 @@
         <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -6142,11 +6142,11 @@
         <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -6230,16 +6230,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6255,23 +6255,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -6292,11 +6292,11 @@
         <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6308,20 +6308,20 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6330,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6555,16 +6555,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -6580,10 +6580,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
@@ -6608,20 +6608,20 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6655,10 +6655,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
@@ -6667,11 +6667,11 @@
         <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,16 +6680,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6705,7 +6705,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -6717,11 +6717,11 @@
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6758,20 +6758,20 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
@@ -6808,20 +6808,20 @@
         <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
         <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7718,15 +7718,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7878,14 +7878,14 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8125,7 +8125,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8299,14 +8299,14 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8470,14 +8470,14 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8701,14 +8701,14 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8758,14 +8758,14 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9127,11 +9127,11 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16511687042684026" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16511687042794397" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16511687042804015" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16511687042954304" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_5-16511687043364024" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_0-16511687044504454" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_0-16511687046404355" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16511687046713982" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1651168704757401" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511687048014007" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16511687052346437" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511687079928901" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16511687083531144" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16511687083791122" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16511687083911135" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16511687083921113" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16511687084231167" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16511687084241102" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511687084391499" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16511687084451208" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511687084721174" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16511687084861488" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16511687085181093" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16512555322131228" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512555322301235" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16512555322311242" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16512555322451239" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_7-1651255533228235" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_9-16512555332562358" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_7-16512555335112388" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16512555336142378" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512555338292365" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16512555339962366" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16512555340502384" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16512555340812376" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1651255534208235" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1651255534231239" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512555342542365" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16512555342552369" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-1651255534270236" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512555342722452" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512555342852361" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16512555342902408" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16512555343182375" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16512555343332355" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1651255534349236" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -973,11 +973,11 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1021,11 +1021,11 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1133,11 +1133,11 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,14 +1242,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,14 +1778,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,14 +1842,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2038,14 +2038,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3235,15 +3235,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3277,15 +3277,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,10 +4252,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5165,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,23 +5304,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>-0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -5354,16 +5354,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5379,10 +5379,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
@@ -5404,13 +5404,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>-0.25</v>
@@ -5429,13 +5429,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -5491,11 +5491,11 @@
         <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5504,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
@@ -5516,11 +5516,11 @@
         <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5554,16 +5554,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5607,20 +5607,20 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E17" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5704,16 +5704,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5754,23 +5754,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -5791,11 +5791,11 @@
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5813,14 +5813,14 @@
         <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5829,23 +5829,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -5907,13 +5907,13 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5957,13 +5957,13 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6010,10 +6010,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6111,17 +6111,17 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,13 +6130,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -6161,10 +6161,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6255,10 +6255,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -6267,11 +6267,11 @@
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6280,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>-0.25</v>
@@ -6305,13 +6305,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6361,10 +6361,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -6417,11 +6417,11 @@
         <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6455,23 +6455,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,10 +6480,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
@@ -6492,11 +6492,11 @@
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -6630,23 +6630,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6661,17 +6661,17 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6733,13 +6733,13 @@
         <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -6758,13 +6758,13 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6805,10 +6805,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6817,11 +6817,11 @@
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6839,14 +6839,14 @@
         <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,19 +7441,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,19 +7504,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,17 +7856,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8163,14 +8163,14 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
         <v>9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,17 +8600,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,10 +8869,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,17 +8907,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8926,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9239,11 +9239,11 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_conditions.xlsx
+++ b/participants/participant_19/participant_19_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16512555322131228" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16512555322301235" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16512555322311242" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16512555322451239" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_7-1651255533228235" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_9-16512555332562358" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_7-16512555335112388" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16512555336142378" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16512555338292365" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16512555339962366" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16512555340502384" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16512555340812376" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1651255534208235" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-1651255534231239" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16512555342542365" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16512555342552369" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-1651255534270236" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16512555342722452" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16512555342852361" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16512555342902408" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16512555343182375" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16512555343332355" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1651255534349236" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="ZB-match_4-16515889642047777" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ZB-match_4-16515889643906515" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ZB-match_9-16515889645777974" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="OB-1651588964895019" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="OB-16515889656128066" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OB-1651588965672083" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TB-16515889658970485" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="TB-16515889662042787" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TB-16515889667293346" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ZM_stims-16515889667510111" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MM_stims-16515889667638173" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ZM_stims-16515889667648628" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MM_stims-16515889667811732" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-1651588966782172" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16515889667965233" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="go_stims-16515889668011746" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="GNG_stims-1651588966815421" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="go_stims-1651588966817431" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="GNG_stims-16515889668307655" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1651588966839484" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16515889668621376" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651588966877771" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16515889668928313" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,12 +458,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_interval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,19 +482,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_6.jpg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -503,19 +501,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -524,19 +520,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_30.jpg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -545,19 +539,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_7.jpg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -566,19 +558,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -587,19 +577,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_1.jpg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -608,19 +596,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -629,19 +615,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_5.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -650,19 +634,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -671,19 +653,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -692,19 +672,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_29.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -713,19 +691,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_27.jpg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -734,19 +710,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_13.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -757,17 +731,15 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_3.jpg</t>
-        </is>
+      <c r="C15" t="n">
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -776,19 +748,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -797,19 +767,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -818,19 +786,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_28.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -839,19 +805,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -862,17 +826,15 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
+      <c r="C20" t="n">
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -881,19 +843,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -908,7 +868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +879,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -937,8 +897,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -953,8 +915,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -969,15 +933,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -985,8 +951,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1001,15 +969,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>6</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1017,8 +987,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1026,230 +998,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>right</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,7 +1023,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1293,8 +1041,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>8</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1309,8 +1059,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1325,8 +1077,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1341,8 +1095,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1357,15 +1113,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1373,239 +1131,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +1167,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1649,8 +1185,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1665,8 +1203,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1681,15 +1221,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1697,8 +1239,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1713,15 +1257,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1729,237 +1275,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -1976,7 +1300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,7 +1311,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2005,8 +1329,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>6</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2021,15 +1347,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>7</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2037,15 +1365,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2053,8 +1383,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2069,8 +1401,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2085,8 +1419,10 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2094,230 +1430,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +1475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +1493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +1511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2435,7 +1547,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +1565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +1619,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,15 +1637,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,15 +1673,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +1691,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2597,7 +1709,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2620,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,15 +1743,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_interval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2649,17 +1766,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_5.jpg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2667,17 +1787,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_18.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2685,17 +1808,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2703,17 +1829,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_28.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2721,17 +1850,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2739,17 +1871,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_15.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_27.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_6.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_19.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_25.jpeg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_13.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_2.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_26.jpeg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_11.jpeg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_22.jpeg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_30.jpg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_1.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2775,15 +2204,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_inverval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2793,17 +2227,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_1.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2811,17 +2248,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_21.jpg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2829,17 +2269,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_3.jpeg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2847,17 +2290,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_28.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2311,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_23.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2332,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_26.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_4.jpeg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_28.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_29.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_21.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_9.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_8.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_30.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_22.jpg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_7.jpg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_2.jpeg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_5.jpg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_9.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2919,15 +2665,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_interval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -2937,17 +2688,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_19.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2955,17 +2709,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_20.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2973,17 +2730,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_26.jpeg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2751,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_7.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3009,17 +2772,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_25.jpeg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3027,17 +2793,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_4.jpg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_2.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_6.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_21.jpeg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_24.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_13.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_17.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_30.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_12.jpeg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_10.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_11.jpeg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_1.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_18.jpeg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,15 +3126,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>inter_stim_inverval</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>GNG_stim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>match</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -3081,17 +3149,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3099,17 +3170,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_16.jpeg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3117,17 +3191,20 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_11.jpeg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3212,20 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_3.jpg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3153,17 +3233,20 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>right</t>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_8.jpg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3171,17 +3254,314 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_5.jpeg</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_18.jpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_4.jpg</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_28.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_26.jpeg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_11.jpeg</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_25.jpeg</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_8.jpeg</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_2.jpeg</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_30.jpg</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_14.jpeg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>go_stimuli\puppy_23.jpeg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_9.jpeg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>no_go_stimuli\spider_23.jpg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3587,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_inverval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -3233,17 +3613,15 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
-        </is>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3630,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3649,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_7.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3294,19 +3668,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_30.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3687,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3706,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3725,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_5.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3380,17 +3746,15 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_8.jpg</t>
-        </is>
+      <c r="C9" t="n">
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3763,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3782,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3801,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3820,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_3.jpg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3841,15 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
-        </is>
+      <c r="C14" t="n">
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3504,19 +3858,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_2.jpg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3525,19 +3877,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3896,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3567,19 +3915,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3934,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3611,17 +3955,15 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
-        </is>
+      <c r="C20" t="n">
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3630,19 +3972,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,10 +4067,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3752,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3777,10 +4117,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3805,7 +4145,7 @@
         <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +4154,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3839,11 +4179,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -3864,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3889,11 +4229,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,10 +4242,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,10 +4267,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -3977,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -3989,11 +4329,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4342,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +4354,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4370,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -4064,11 +4404,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4420,7 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,7 +4442,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -4114,11 +4454,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4470,7 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4155,7 +4495,7 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +4504,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4517,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4205,7 +4545,7 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4214,11 +4554,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4567,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -4239,11 +4579,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4592,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4264,11 +4604,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4642,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,7 +4667,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4339,11 +4679,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4692,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4380,7 +4720,7 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4729,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4742,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,7 +4767,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -4528,10 +4868,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,10 +4893,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4905,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4921,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4615,11 +4955,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4968,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4980,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4993,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +5018,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +5030,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4703,7 +5043,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4731,7 +5071,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +5080,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4753,10 +5093,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +5118,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +5130,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4815,11 +5155,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4828,10 +5168,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +5180,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4865,11 +5205,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4878,7 +5218,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4890,11 +5230,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,10 +5243,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,7 +5268,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4940,11 +5280,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +5293,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +5305,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,10 +5318,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +5330,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5368,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -5053,10 +5393,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5081,7 +5421,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5131,7 +5471,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5156,7 +5496,7 @@
         <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5165,11 +5505,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,7 +5518,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -5240,11 +5580,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5310,17 +5650,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5672,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>-0.25</v>
@@ -5341,11 +5681,11 @@
         <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5703,7 @@
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5379,16 +5719,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5404,7 +5744,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -5416,11 +5756,11 @@
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5429,23 +5769,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
         <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,16 +5794,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -5485,17 +5825,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5504,16 +5844,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5529,16 +5869,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5563,14 +5903,14 @@
         <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,16 +5919,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5604,23 +5944,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5972,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.25</v>
@@ -5641,11 +5981,11 @@
         <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5654,23 +5994,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,23 +6019,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5707,13 +6047,13 @@
         <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5729,23 +6069,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5757,20 +6097,20 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5779,10 +6119,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
@@ -5804,23 +6144,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5829,23 +6169,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5857,10 +6197,10 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -5879,23 +6219,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5907,13 +6247,13 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -5929,7 +6269,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -5941,11 +6281,11 @@
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,23 +6294,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5979,23 +6319,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6004,13 +6344,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>-0.25</v>
@@ -6029,23 +6369,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
@@ -6130,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -6155,16 +6495,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -6180,13 +6520,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>-0.25</v>
@@ -6205,16 +6545,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -6233,20 +6573,20 @@
         <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,23 +6595,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E8" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,23 +6620,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6305,23 +6645,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6330,16 +6670,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6355,16 +6695,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6380,23 +6720,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,10 +6745,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
@@ -6430,7 +6770,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -6467,11 +6807,11 @@
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,23 +6820,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6505,16 +6845,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -6530,23 +6870,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6558,20 +6898,20 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,13 +6920,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
@@ -6605,10 +6945,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -6630,23 +6970,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6658,13 +6998,13 @@
         <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6686,10 +7026,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6705,23 +7045,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6730,7 +7070,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -6739,14 +7079,14 @@
         <v>-0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,7 +7095,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -6764,7 +7104,7 @@
         <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6783,7 +7123,7 @@
         <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0.25</v>
@@ -6805,23 +7145,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6833,13 +7173,13 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6872,12 +7212,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_interval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match_num</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,19 +7236,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_7.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6917,19 +7255,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_29.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6938,19 +7274,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6959,19 +7293,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6980,19 +7312,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_28.jpg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7001,19 +7331,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_1.jpg</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7022,19 +7350,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_6.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7043,19 +7369,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7064,19 +7388,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_4.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7085,19 +7407,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_9.jpg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7106,19 +7426,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7129,17 +7447,15 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_5.jpg</t>
-        </is>
+      <c r="C13" t="n">
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7148,19 +7464,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7169,19 +7483,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7190,19 +7502,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7211,19 +7521,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_8.jpg</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7232,19 +7540,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_13.jpg</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7253,19 +7559,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7274,19 +7578,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_2.jpg</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7295,19 +7597,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7333,20 +7633,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>inter_stim_inverval</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GNG_stim</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7359,17 +7654,12 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7668,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7684,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_27.jpg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7422,17 +7702,12 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7441,19 +7716,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_30.jpg</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7732,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7483,19 +7748,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7504,19 +7764,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7525,19 +7780,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7546,19 +7796,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_4.jpg</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7569,17 +7814,12 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7588,19 +7828,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7609,19 +7844,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_28.jpg</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7860,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7651,19 +7876,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7672,19 +7892,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7908,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7714,19 +7924,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>None</t>
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7737,17 +7942,12 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_10.jpg</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>space</t>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7956,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>space</t>
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7799,15 +7994,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7818,17 +8008,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7840,14 +8027,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,17 +8040,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7875,17 +8056,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7894,17 +8072,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7913,15 +8088,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -7932,15 +8104,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7951,15 +8120,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7970,17 +8136,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +8152,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,15 +8168,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8027,15 +8184,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8046,15 +8200,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8065,15 +8216,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8084,17 +8232,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8106,14 +8251,11 @@
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,15 +8264,12 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8141,15 +8280,12 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8160,17 +8296,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,15 +8312,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8204,7 +8334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8220,15 +8350,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8239,17 +8364,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,15 +8380,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8277,15 +8396,12 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8296,17 +8412,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,15 +8428,12 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8334,17 +8444,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,15 +8460,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8372,15 +8476,12 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8391,17 +8492,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8413,14 +8511,11 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,15 +8524,12 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8448,15 +8540,12 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8467,15 +8556,12 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8486,17 +8572,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8588,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,15 +8604,12 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8543,15 +8620,12 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8562,17 +8636,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8652,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,17 +8668,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,15 +8706,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8660,15 +8720,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8679,15 +8736,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8698,17 +8752,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8717,17 +8768,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8784,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,15 +8800,12 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8774,15 +8816,12 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8793,17 +8832,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8848,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,15 +8864,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -8850,17 +8880,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8896,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8912,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,15 +8928,12 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8926,17 +8944,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8960,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,15 +8976,12 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8983,17 +8992,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,17 +9008,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,15 +9024,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -9143,11 +9143,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
